--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slcf\workspace\GitHub\23SS_MLDL\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slcf\workspace\GitHub\Safe-Artificial-Intelligence\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="5130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2745" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -33,102 +33,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강다니엘</t>
-  </si>
-  <si>
-    <t>강동호</t>
-  </si>
-  <si>
-    <t>권현빈</t>
-  </si>
-  <si>
-    <t>김사무엘</t>
-  </si>
-  <si>
-    <t>노태현</t>
-  </si>
-  <si>
-    <t>라이관린</t>
-  </si>
-  <si>
-    <t>박우진</t>
-  </si>
-  <si>
-    <t>박지훈</t>
-  </si>
-  <si>
-    <t>배진영</t>
-  </si>
-  <si>
-    <t>옹성우</t>
-  </si>
-  <si>
-    <t>주학년</t>
-  </si>
-  <si>
-    <t>타카다 켄타</t>
-  </si>
-  <si>
-    <t>하성운</t>
-  </si>
-  <si>
-    <t>전소미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김세정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최유정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김청하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김소혜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주결경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정채연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김도연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강미나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임나영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유연정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국어성적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수학성적</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kang Daniel</t>
+  </si>
+  <si>
+    <t>Kang Dongho</t>
+  </si>
+  <si>
+    <t>Kang Mina</t>
+  </si>
+  <si>
+    <t>Kwon Hyunbin</t>
+  </si>
+  <si>
+    <t>Kim Doyeon</t>
+  </si>
+  <si>
+    <t>Kim Samuel</t>
+  </si>
+  <si>
+    <t>Kim Sejeong</t>
+  </si>
+  <si>
+    <t>Kim Sohye</t>
+  </si>
+  <si>
+    <t>Kim Chungha</t>
+  </si>
+  <si>
+    <t>Noh Taehyun</t>
+  </si>
+  <si>
+    <t>Lai Kuanlin</t>
+  </si>
+  <si>
+    <t>Park Woojin</t>
+  </si>
+  <si>
+    <t>Park Jihoon</t>
+  </si>
+  <si>
+    <t>Bae Jinyoung</t>
+  </si>
+  <si>
+    <t>Ong Seongwoo</t>
+  </si>
+  <si>
+    <t>Yoo Yeonjung</t>
+  </si>
+  <si>
+    <t>Im Nayoung</t>
+  </si>
+  <si>
+    <t>Jeon Somi</t>
+  </si>
+  <si>
+    <t>Jung Chaeyeon</t>
+  </si>
+  <si>
+    <t>Zhou Jieqiong</t>
+  </si>
+  <si>
+    <t>Ju Haknyeon</t>
+  </si>
+  <si>
+    <t>Choi Yoojung</t>
+  </si>
+  <si>
+    <t>Takada Kenta</t>
+  </si>
+  <si>
+    <t>Ha Sungwoon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,14 +136,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -192,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,9 +184,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,326 +478,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">ROUND(100*RAND(),-1)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">B2*0.5+50</f>
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B24" ca="1" si="0">ROUND(100*RAND(),-1)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C25" ca="1" si="1">B3*0.5+50</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>80</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C23" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>90</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C24" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <f ca="1">ROUND(100*RAND(),-1)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -29,88 +29,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>이름</t>
+    <t>Kang Daniel</t>
+  </si>
+  <si>
+    <t>Kang Dongho</t>
+  </si>
+  <si>
+    <t>Kang Mina</t>
+  </si>
+  <si>
+    <t>Kwon Hyunbin</t>
+  </si>
+  <si>
+    <t>Kim Doyeon</t>
+  </si>
+  <si>
+    <t>Kim Samuel</t>
+  </si>
+  <si>
+    <t>Kim Sejeong</t>
+  </si>
+  <si>
+    <t>Kim Sohye</t>
+  </si>
+  <si>
+    <t>Kim Chungha</t>
+  </si>
+  <si>
+    <t>Noh Taehyun</t>
+  </si>
+  <si>
+    <t>Lai Kuanlin</t>
+  </si>
+  <si>
+    <t>Park Woojin</t>
+  </si>
+  <si>
+    <t>Park Jihoon</t>
+  </si>
+  <si>
+    <t>Bae Jinyoung</t>
+  </si>
+  <si>
+    <t>Ong Seongwoo</t>
+  </si>
+  <si>
+    <t>Yoo Yeonjung</t>
+  </si>
+  <si>
+    <t>Im Nayoung</t>
+  </si>
+  <si>
+    <t>Jeon Somi</t>
+  </si>
+  <si>
+    <t>Jung Chaeyeon</t>
+  </si>
+  <si>
+    <t>Zhou Jieqiong</t>
+  </si>
+  <si>
+    <t>Ju Haknyeon</t>
+  </si>
+  <si>
+    <t>Choi Yoojung</t>
+  </si>
+  <si>
+    <t>Takada Kenta</t>
+  </si>
+  <si>
+    <t>Ha Sungwoon</t>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국어성적</t>
+    <t>Korean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수학성적</t>
+    <t>Match</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kang Daniel</t>
-  </si>
-  <si>
-    <t>Kang Dongho</t>
-  </si>
-  <si>
-    <t>Kang Mina</t>
-  </si>
-  <si>
-    <t>Kwon Hyunbin</t>
-  </si>
-  <si>
-    <t>Kim Doyeon</t>
-  </si>
-  <si>
-    <t>Kim Samuel</t>
-  </si>
-  <si>
-    <t>Kim Sejeong</t>
-  </si>
-  <si>
-    <t>Kim Sohye</t>
-  </si>
-  <si>
-    <t>Kim Chungha</t>
-  </si>
-  <si>
-    <t>Noh Taehyun</t>
-  </si>
-  <si>
-    <t>Lai Kuanlin</t>
-  </si>
-  <si>
-    <t>Park Woojin</t>
-  </si>
-  <si>
-    <t>Park Jihoon</t>
-  </si>
-  <si>
-    <t>Bae Jinyoung</t>
-  </si>
-  <si>
-    <t>Ong Seongwoo</t>
-  </si>
-  <si>
-    <t>Yoo Yeonjung</t>
-  </si>
-  <si>
-    <t>Im Nayoung</t>
-  </si>
-  <si>
-    <t>Jeon Somi</t>
-  </si>
-  <si>
-    <t>Jung Chaeyeon</t>
-  </si>
-  <si>
-    <t>Zhou Jieqiong</t>
-  </si>
-  <si>
-    <t>Ju Haknyeon</t>
-  </si>
-  <si>
-    <t>Choi Yoojung</t>
-  </si>
-  <si>
-    <t>Takada Kenta</t>
-  </si>
-  <si>
-    <t>Ha Sungwoon</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,226 +479,226 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">ROUND(100*RAND(),-1)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">B2*0.5+50</f>
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B24" ca="1" si="0">ROUND(100*RAND(),-1)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C25" ca="1" si="1">B3*0.5+50</f>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -711,93 +711,93 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <f ca="1">ROUND(100*RAND(),-1)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
